--- a/tabelaInfinitao2024-319.xlsx
+++ b/tabelaInfinitao2024-319.xlsx
@@ -1,149 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reixx\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC45FE-B35E-41CA-814E-A98B76E3995C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Pontos</t>
-  </si>
-  <si>
-    <t>Participação</t>
-  </si>
-  <si>
-    <t>MATHEUS MIZAEL</t>
-  </si>
-  <si>
-    <t>FELIPE FIRMO</t>
-  </si>
-  <si>
-    <t>MATHEUS AMORIM</t>
-  </si>
-  <si>
-    <t>ALEX GASPARI</t>
-  </si>
-  <si>
-    <t>BRUNO MASCARENHAS</t>
-  </si>
-  <si>
-    <t>CARLOS EDUARDO</t>
-  </si>
-  <si>
-    <t>CARLOS HENRIQUE</t>
-  </si>
-  <si>
-    <t>CAUA NAA</t>
-  </si>
-  <si>
-    <t>ELTON FIGUEREDO</t>
-  </si>
-  <si>
-    <t>IDAIANE SILVA</t>
-  </si>
-  <si>
-    <t>JEAN TEIXEIRA</t>
-  </si>
-  <si>
-    <t>LEANDRO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>MARCELO DA FRANCA</t>
-  </si>
-  <si>
-    <t>MAURICIO ALEIXO</t>
-  </si>
-  <si>
-    <t>NATALIA CARVALHO</t>
-  </si>
-  <si>
-    <t>PAULA NEVES</t>
-  </si>
-  <si>
-    <t>RODRIGO MACIMO</t>
-  </si>
-  <si>
-    <t>RYAN VITOR</t>
-  </si>
-  <si>
-    <t>TIMOTEO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>WESLEY DUARTE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="00D9EAD3"/>
+        <bgColor rgb="00D9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD700"/>
-        <bgColor rgb="FFFFD700"/>
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="00C0C0C0"/>
+        <bgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCD7F32"/>
-        <bgColor rgb="FFCD7F32"/>
+        <fgColor rgb="00CD7F32"/>
+        <bgColor rgb="00CD7F32"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -156,55 +76,105 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -492,248 +462,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pontos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Participação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>MATHEUS AMORIM</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>MATHEUS MIZAEL</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>FELIPE FIRMO</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>RYAN VITOR</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>CARLOS EDUARDO</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>CARLOS HENRIQUE</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>ELTON FIGUEREDO</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>IDAIANE SILVA</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>JEAN TEIXEIRA</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>MARCELO DA FRANCA</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>NATALIA CARVALHO</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>PAULA NEVES</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>TIMOTEO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>ALEX GASPARI</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C15" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>BRUNO MASCARENHAS</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="C3" s="3">
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>CAUA NAA</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C17" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>LEANDRO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C18" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>MAURICIO ALEIXO</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C19" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>RODRIGO MACIMO</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C20" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>WESLEY DUARTE</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="C21" s="5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tabelaInfinitao2024-319.xlsx
+++ b/tabelaInfinitao2024-319.xlsx
@@ -500,157 +500,157 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>MATHEUS AMORIM</t>
+          <t>MATHEUS MIZAEL</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>MATHEUS MIZAEL</t>
+          <t>MATHEUS AMORIM</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>FELIPE FIRMO</t>
+          <t>RYAN VITOR</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>RYAN VITOR</t>
+          <t>FELIPE FIRMO</t>
         </is>
       </c>
       <c r="B5" s="5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>CARLOS EDUARDO</t>
+          <t>PAULA NEVES</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>CARLOS HENRIQUE</t>
+          <t>CARLOS EDUARDO</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>ELTON FIGUEREDO</t>
+          <t>CARLOS HENRIQUE</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>IDAIANE SILVA</t>
+          <t>ELTON FIGUEREDO</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>JEAN TEIXEIRA</t>
+          <t>IDAIANE SILVA</t>
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>MARCELO DA FRANCA</t>
+          <t>JEAN TEIXEIRA</t>
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>NATALIA CARVALHO</t>
+          <t>MARCELO DA FRANCA</t>
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>PAULA NEVES</t>
+          <t>NATALIA CARVALHO</t>
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
